--- a/01_projects/02_e18-e103/extracted/p02_all_source_samples.xlsx
+++ b/01_projects/02_e18-e103/extracted/p02_all_source_samples.xlsx
@@ -125,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SourceSamplesTable" displayName="SourceSamplesTable" ref="A1:G224" headerRowCount="1">
-  <autoFilter ref="A1:G224"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SourceSamplesTable" displayName="SourceSamplesTable" ref="A1:G223" headerRowCount="1">
+  <autoFilter ref="A1:G223"/>
   <tableColumns count="7">
     <tableColumn id="1" name="source_sample_name"/>
     <tableColumn id="2" name="sample_description"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2231,23 +2231,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sprengstein Pel 9160</t>
+          <t>Blandeprøve pel 9260-9110 Bunnrensk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NO2303449</t>
+          <t>NO2518613</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Alle bunnrenskprøver, mangler siste blandeprøve ØL (1).xlsx</t>
+          <t>EDD_XLS_STD_NO2518613_0_nb-NO.xlsx</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2257,26 +2253,26 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve">pel </t>
+          <t>bunnrensk</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Blandeprøve pel 9260-9110 Bunnrensk</t>
+          <t>Blandeprøve pel 9760 - 9560 Blandeprøve pel 9760 -9560</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NO2518613</t>
+          <t>NO2510239</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2518613_0_nb-NO.xlsx</t>
+          <t>EDD_XLS_STD_NO2510239_0_nb-NO.xlsx</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2286,26 +2282,26 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>bunnrensk</t>
+          <t>blandeprøve pel</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Blandeprøve pel 9760 - 9560 Blandeprøve pel 9760 -9560</t>
+          <t>Blandeprøve pel. 10010 - 9810 Bunnrenskprøver testes for Benzen.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NO2510239</t>
+          <t>NO2503280</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2510239_0_nb-NO.xlsx</t>
+          <t>EDD_XLS_STD_NO2503280_0_nb-NO.xlsx</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2315,26 +2311,26 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>blandeprøve pel</t>
+          <t>bunnrensk</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Blandeprøve pel. 10010 - 9810 Bunnrenskprøver testes for Benzen.</t>
+          <t>Blandeprøve pel. 9510 - 9310 Blandeprøve av bunnrenskmasser</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NO2503280</t>
+          <t>NO2512144</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2503280_0_nb-NO.xlsx</t>
+          <t>EDD_XLS_STD_NO2512144_0_nb-NO.xlsx</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2351,19 +2347,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Blandeprøve pel. 9510 - 9310 Blandeprøve av bunnrenskmasser</t>
+          <t>PEL 8981 3 blandprøver fra tverrsnittet - Vestgående løp</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NO2512144</t>
+          <t>NO2326608</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2512144_0_nb-NO.xlsx</t>
+          <t>EDD_XLS_STD_NO2326608_0_nb-NO (2).xlsx</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2373,14 +2369,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>bunnrensk</t>
+          <t xml:space="preserve">pel </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PEL 8981 3 blandprøver fra tverrsnittet - Vestgående løp</t>
+          <t>PEL 8981 Kolonnetest L/S=1.0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2409,7 +2405,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PEL 8981 Kolonnetest L/S=1.0</t>
+          <t>PEL 9960 3 blandprøver fra tverrsnittet - Østgående løp</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2438,7 +2434,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PEL 9960 3 blandprøver fra tverrsnittet - Østgående løp</t>
+          <t>PEL 9960 Kolonnetest L/S=1.0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2467,19 +2463,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PEL 9960 Kolonnetest L/S=1.0</t>
+          <t>Siste utlekkingsprøve Høviktoppen pel. 8760 Bunnrenskprøver testes for Benzen.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NO2326608</t>
+          <t>NO2503280</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2326608_0_nb-NO (2).xlsx</t>
+          <t>EDD_XLS_STD_NO2503280_0_nb-NO.xlsx</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2489,48 +2485,52 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">pel </t>
+          <t>bunnrensk</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Siste utlekkingsprøve Høviktoppen pel. 8760 Bunnrenskprøver testes for Benzen.</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>P1-L1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NO2503280</t>
+          <t>NO2516985</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EDD_XLS_STD_NO2503280_0_nb-NO.xlsx</t>
+          <t>Alle bunnrenskprøver, mangler siste blandeprøve ØL (1).xlsx</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>bunnrensk</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P1-L1</t>
+          <t>P1-L2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NO2516985</t>
+          <t>NO2516986</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P1-L2</t>
+          <t>P1-L3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2591,12 +2591,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>P1-L3</t>
+          <t>P2-L1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
+          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NO2516986</t>
+          <t>NO2516985</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>P2-L1</t>
+          <t>P2-L2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NO2516985</t>
+          <t>NO2516986</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2657,7 +2657,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>P2-L2</t>
+          <t>P2-L3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2690,12 +2690,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>P2-L3</t>
+          <t>P3-L1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
+          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NO2516986</t>
+          <t>NO2516985</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2723,12 +2723,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>P3-L1</t>
+          <t>P3-L2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NO2516985</t>
+          <t>NO2516986</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2756,7 +2756,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>P3-L2</t>
+          <t>P3-L3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2789,12 +2789,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>P3-L3</t>
+          <t>P4-L1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
+          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NO2516986</t>
+          <t>NO2516985</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2822,12 +2822,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P4-L1</t>
+          <t>P4-L2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NO2516985</t>
+          <t>NO2516986</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P4-L2</t>
+          <t>P4-L3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2888,22 +2888,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P4-L3</t>
+          <t>0-1m</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gamle steinmasser som kan være forurenset av biltrafikk.</t>
+          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NO2516986</t>
+          <t>NO2516629</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0-1m</t>
+          <t>01, 0-1m</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2954,7 +2954,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01, 0-1m</t>
+          <t>03, 0-1m</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2987,7 +2987,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>03, 0-1m</t>
+          <t>03, 1-2m</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3020,7 +3020,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>03, 1-2m</t>
+          <t>2m-3m</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3053,7 +3053,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2m-3m</t>
+          <t>5-6m</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3086,22 +3086,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5-6m</t>
+          <t>1 år. Hydraulikkolje 1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Freset asfalt fra 1970, som skal sjekkes for tjære før deponering.</t>
+          <t>Hydraulikkolje forsøk av vanlig HVXA46. 1år etter "søl"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NO2516629</t>
+          <t>NO2516623</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3119,12 +3119,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 1</t>
+          <t>1 år. Hydraulikkolje 1 -  blandet med jord</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av vanlig HVXA46. 1år etter "søl"</t>
+          <t>Hydraulikkolje forsøk av vanlig HVXA46 . 1år etter "søl". Blandet med jord og frøblanding og oppbevart utendørs til lufting de siste månedene</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3152,12 +3152,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 1 -  blandet med jord</t>
+          <t>1 år. Hydraulikkolje 1 - ute</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av vanlig HVXA46 . 1år etter "søl". Blandet med jord og frøblanding og oppbevart utendørs til lufting de siste månedene</t>
+          <t>Hydraulikkolje forsøk av vanlig HVXA46 . 1år etter "søl". Oppbevart utendørs til lufting under tak de siste månedene</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3185,12 +3185,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 1 - ute</t>
+          <t>1 år. Hydraulikkolje 2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av vanlig HVXA46 . 1år etter "søl". Oppbevart utendørs til lufting under tak de siste månedene</t>
+          <t>Hydraulikkolje forsøk av biohydraulikkolje. 1år etter "søl"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3218,12 +3218,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 2</t>
+          <t>1 år. Hydraulikkolje 2 -  blandet med jord</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av biohydraulikkolje. 1år etter "søl"</t>
+          <t>Hydraulikkolje forsøk av biohydraulikkolje . 1år etter "søl". Blandet med jord og frøblanding og oppbevart utendørs til lufting de siste månedene</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3251,12 +3251,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 2 -  blandet med jord</t>
+          <t>1 år. Hydraulikkolje 2 - ute</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av biohydraulikkolje . 1år etter "søl". Blandet med jord og frøblanding og oppbevart utendørs til lufting de siste månedene</t>
+          <t>Hydraulikkolje forsøk av biohydraulikkolje. 1år etter "søl". Oppbevart utendørs til lufting under tak.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3284,22 +3284,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1 år. Hydraulikkolje 2 - ute</t>
+          <t>Testforsøk SiGS, vanlig injeksjons sement</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av biohydraulikkolje. 1år etter "søl". Oppbevart utendørs til lufting under tak.</t>
+          <t>Injeksjonssement som testes for utlekking av krom</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NO2516623</t>
+          <t>NO2514566</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3317,22 +3317,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Testforsøk SiGS, vanlig injeksjons sement</t>
+          <t>SiGS i injeksjon</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Injeksjonssement som testes for utlekking av krom</t>
+          <t>Sillica Greenstone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NO2514566</t>
+          <t>NO2514216</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3350,22 +3350,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SiGS i injeksjon</t>
+          <t>Kalket slam Kolonnetest</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sillica Greenstone</t>
+          <t>L/S=0.1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-12</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NO2514216</t>
+          <t>NO2511656</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3383,12 +3383,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kalket slam Kolonnetest</t>
+          <t>Kalket slam med tilstandsklasse</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>L/S=0.1</t>
+          <t>Kalket slam</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NO2511656</t>
+          <t>NO2511653</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3416,12 +3416,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kalket slam med tilstandsklasse</t>
+          <t>Kalket slam ristetest</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kalket slam</t>
+          <t>Kalket slam Riste/kolonnetest</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NO2511653</t>
+          <t>NO2511656</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3449,22 +3449,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Kalket slam ristetest</t>
+          <t>Sprøytebetong</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kalket slam Riste/kolonnetest</t>
+          <t>Uttak av sprøytebetong kloss for å sjekke kvarts innhold</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NO2511656</t>
+          <t>NO2511039</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3482,22 +3482,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sprøytebetong</t>
+          <t>Master finish</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Uttak av sprøytebetong kloss for å sjekke kvarts innhold</t>
+          <t>Master finish</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NO2511039</t>
+          <t>NO2509597</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3515,12 +3515,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Master finish</t>
+          <t>Matrise</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Master finish</t>
+          <t>Matrise</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3548,22 +3548,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Matrise</t>
+          <t>Kalket slam</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Matrise</t>
+          <t>Kalket slam fra tunell</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NO2509597</t>
+          <t>NO2508787</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3581,22 +3581,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kalket slam</t>
+          <t>VL 8210</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kalket slam fra tunell</t>
+          <t>Bunnrensk VL 8210, tverrsnitt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NO2508787</t>
+          <t>NO2508496</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3614,12 +3614,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VL 8210</t>
+          <t>VL 8260</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bunnrensk VL 8210, tverrsnitt</t>
+          <t>Bunnrensk VL 8260, tverrsnitt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3647,22 +3647,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>VL 8260</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Bunnrensk VL 8260, tverrsnitt</t>
-        </is>
-      </c>
+          <t>Kalka slam 1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NO2508496</t>
+          <t>NO2506133</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3680,10 +3676,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Kalka slam 1</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
+          <t>Kalka slam 2 Kolonnetest</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>L/S=0.1</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>2025-03-14</t>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NO2506133</t>
+          <t>NO2506119</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3709,17 +3709,13 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kalka slam 2 Kolonnetest</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>L/S=0.1</t>
-        </is>
-      </c>
+          <t>Kalka slam 2 Ristetest/TOC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3742,18 +3738,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kalka slam 2 Ristetest/TOC</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>Nedgravd VL 8735</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Bunnrensk med benzen</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NO2506119</t>
+          <t>NO2502456</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3771,22 +3771,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nedgravd VL 8735</t>
+          <t>Master Finish MF 29/1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bunnrensk med benzen</t>
+          <t>Test kilde benzen</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-01-30</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NO2502456</t>
+          <t>NO2502066</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Master Finish MF 29/1</t>
+          <t>Matrise 29/1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3837,12 +3837,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Matrise 29/1</t>
+          <t>VL 8735  1-2m, 29/1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Test kilde benzen</t>
+          <t>Utlufting av bunnrensk</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NO2502066</t>
+          <t>NO2502067</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3870,7 +3870,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>VL 8735  1-2m, 29/1</t>
+          <t>VL 8735  2-3m, 29/1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VL 8735  2-3m, 29/1</t>
+          <t>VL 8735 0-1m, 29/1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3936,22 +3936,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>VL 8735 0-1m, 29/1</t>
+          <t>VL 8735 0-1m, 27/1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Utlufting av bunnrensk</t>
+          <t>Bunnrensk til utlufting</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NO2502067</t>
+          <t>NO2501849</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3969,7 +3969,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>VL 8735 0-1m, 27/1</t>
+          <t>VL 8735 1-2m, 27/1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4002,7 +4002,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VL 8735 1-2m, 27/1</t>
+          <t>VL 8735 2-3m, 27/1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4035,7 +4035,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>VL 8735 2-3m, 27/1</t>
+          <t>VL 8735 0-1m, 25/1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VL 8735 0-1m, 25/1</t>
+          <t>VL 8735 1-2m, 25/1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VL 8735 1-2m, 25/1</t>
+          <t>VL 8735 2-3m, 25/1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4134,7 +4134,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>VL 8735 2-3m, 25/1</t>
+          <t>VL 8735 0-1m, 24/1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4167,7 +4167,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VL 8735 0-1m, 24/1</t>
+          <t>VL 8735 1-2m, 24/1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4200,7 +4200,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VL 8735 1-2m, 24/1</t>
+          <t>VL 8735 2-3m, 24/1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4233,22 +4233,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VL 8735 2-3m, 24/1</t>
+          <t>Høviktoppen dag 2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bunnrensk til utlufting</t>
+          <t>Bunnrensk pel. 8760 - 8560, 2. test utendørs .</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NO2501849</t>
+          <t>NO2501363</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4266,22 +4266,18 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Høviktoppen dag 2</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Bunnrensk pel. 8760 - 8560, 2. test utendørs .</t>
-        </is>
-      </c>
+          <t>HVXA 46 Blanding 24t</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NO2501363</t>
+          <t>NO2501013</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4299,7 +4295,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HVXA 46 Blanding 24t</t>
+          <t>Hydro 10 Blanding 24t</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -4328,7 +4324,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hydro 10 Blanding 24t</t>
+          <t>Master Finish  MF Blanding 24t</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -4357,7 +4353,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Master Finish  MF Blanding 24t</t>
+          <t>N10 blanding 24t</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -4386,7 +4382,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>N10 blanding 24t</t>
+          <t>Rheobuilt blanding 24t</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -4415,7 +4411,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Rheobuilt blanding 24t</t>
+          <t>System W blanding 24t</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -4444,18 +4440,18 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>System W blanding 24t</t>
+          <t>HVXA 46 Blanding</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NO2501013</t>
+          <t>NO2500903</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4473,7 +4469,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HVXA 46 Blanding</t>
+          <t>Hydro 10 Blanding</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -4502,7 +4498,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hydro 10 Blanding</t>
+          <t>Master Finish  MF Blanding</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -4531,7 +4527,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Master Finish  MF Blanding</t>
+          <t>Matrise Blanding</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4560,7 +4556,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Matrise Blanding</t>
+          <t>N10 Blanding</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -4589,7 +4585,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>N10 Blanding</t>
+          <t>Referanse masse</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -4618,7 +4614,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Referanse masse</t>
+          <t>Rheobuilt blanding</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -4647,7 +4643,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Rheobuilt blanding</t>
+          <t>System W blanding</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -4676,10 +4672,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>System W blanding</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t>Utlekkingsprøve dag 3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Bunnrenskmasser som testes for Benzen.</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>2025-01-15</t>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NO2500903</t>
+          <t>NO2500893</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4705,22 +4705,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Utlekkingsprøve dag 3</t>
+          <t>Utlekkingsprøve dag 1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bunnrenskmasser som testes for Benzen.</t>
+          <t>Bunnrenskprøve fra tunell på E103.</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NO2500893</t>
+          <t>NO2500702</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4738,22 +4738,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Utlekkingsprøve dag 1</t>
+          <t>6 mnd. Hydraulikkolje 1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Bunnrenskprøve fra tunell på E103.</t>
+          <t>Hydraulikkolje forsøk av vanlig HVXA46. . 6 mnd etter "søl"</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NO2500702</t>
+          <t>NO2500310</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4771,12 +4771,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6 mnd. Hydraulikkolje 1</t>
+          <t>6 mnd. Hydraulikkolje 2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av vanlig HVXA46. . 6 mnd etter "søl"</t>
+          <t>Hydraulikkolje forsøk av biohydraulikkolje. . 6 mnd etter "søl"</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4804,22 +4804,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6 mnd. Hydraulikkolje 2</t>
+          <t>Dag 8</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk av biohydraulikkolje. . 6 mnd etter "søl"</t>
+          <t>Sprengsteinsprøver</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-12-02</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NO2500310</t>
+          <t>NO2429146</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4837,22 +4837,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dag 8</t>
+          <t>Slamprøve Fossum/Slamprøver E103</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sprengsteinsprøver</t>
+          <t>Slamprøver av ferdig behandlet og sedimentert slam. Fortsatt vannholdig.</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NO2429146</t>
+          <t>NO2428300</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4870,22 +4870,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Slamprøve Fossum/Slamprøver E103</t>
+          <t>Dag 4</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Slamprøver av ferdig behandlet og sedimentert slam. Fortsatt vannholdig.</t>
+          <t>Sprengsteinsprøver</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>NO2428300</t>
+          <t>NO2429146</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4903,7 +4903,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Dag 4</t>
+          <t>Dag 0</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4936,22 +4936,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dag 0</t>
+          <t>2 mnd Hydraulikkolje 1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sprengsteinsprøver</t>
+          <t>Hydraulikkolje forsøk 1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NO2429146</t>
+          <t>NO2420902</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4969,12 +4969,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2 mnd Hydraulikkolje 1</t>
+          <t>2 mnd Hydraulikkolje 2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk 1</t>
+          <t>Hydraulikkolje forsøk 2</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5002,12 +5002,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2 mnd Hydraulikkolje 2</t>
+          <t>Sprengstein 12.09</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hydraulikkolje forsøk 2</t>
+          <t>Sprengstein</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5035,22 +5035,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Sprengstein 12.09</t>
+          <t>Sprengstein 05/09</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sprengstein</t>
+          <t>Sprengsteinsprøve før Hypex</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NO2420902</t>
+          <t>NO2420262</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5068,22 +5068,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sprengstein 05/09</t>
+          <t>Slam 9010</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sprengsteinsprøve før Hypex</t>
+          <t>Slam 9010</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NO2420262</t>
+          <t>NO2418537</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5101,22 +5101,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Slam 9010</t>
+          <t>VL Blandeprøve 1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Slam 9010</t>
+          <t>Blandeprøve bunnrenskmasser</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NO2418537</t>
+          <t>NO2417648</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5134,22 +5134,18 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>VL Blandeprøve 1</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Blandeprøve bunnrenskmasser</t>
-        </is>
-      </c>
+          <t>Før søl. Beholder: biohydraulikkolje</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NO2417648</t>
+          <t>NO2415780</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5167,7 +5163,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Før søl. Beholder: biohydraulikkolje</t>
+          <t>Før søl. Beholder: hydraulikkolje</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -5196,7 +5192,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Før søl. Beholder: hydraulikkolje</t>
+          <t>Rett etter søl. Beholder: biohydraulikkolje</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -5225,7 +5221,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Rett etter søl. Beholder: biohydraulikkolje</t>
+          <t>Rett etter søl. Beholder: hydraulikkolje</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -5254,18 +5250,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Rett etter søl. Beholder: hydraulikkolje</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
+          <t>Beredskapskonteiner 24/6</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Prøve av masser fra oljesøl ink. noe bark brukt som absorbent</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>NO2415780</t>
+          <t>NO2414503</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5283,22 +5283,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Beredskapskonteiner 24/6</t>
+          <t>SPS24</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Prøve av masser fra oljesøl ink. noe bark brukt som absorbent</t>
+          <t>Sprengsteinsprøve fra mellomlager</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NO2414503</t>
+          <t>NO2408675</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5316,22 +5316,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SPS24</t>
+          <t>SA01</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sprengsteinsprøve fra mellomlager</t>
+          <t>Grunnmasser fra Sandviksveien</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>NO2408675</t>
+          <t>NO2407320</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5349,7 +5349,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SA01</t>
+          <t>SA02</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5382,7 +5382,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SA02</t>
+          <t>SA03</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5415,7 +5415,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SA03</t>
+          <t>SA04</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5448,7 +5448,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SA04</t>
+          <t>SA05</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5481,7 +5481,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SA05</t>
+          <t>SA06</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5514,12 +5514,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SA06</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Grunnmasser fra Sandviksveien</t>
+          <t>Blandprøve av grunnmasser fra Sandviksveien, SA01-06</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NO2407320</t>
+          <t>NO2407356</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5547,12 +5547,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SAS Kolonnetest</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Blandprøve av grunnmasser fra Sandviksveien, SA01-06</t>
+          <t>L/S=0.1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5580,14 +5580,10 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SAS Kolonnetest</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>L/S=0.1</t>
-        </is>
-      </c>
+          <t>SAS Ristetest</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>2024-04-09</t>
@@ -5613,10 +5609,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SAS Ristetest</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>Slamprøve verksted 09.04.24</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Fra to ulike rister</t>
+        </is>
+      </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>2024-04-09</t>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NO2407356</t>
+          <t>NO2407319</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5642,22 +5642,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Slamprøve verksted 09.04.24</t>
+          <t>JNB</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Fra to ulike rister</t>
+          <t>Jord langs E18, nord</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NO2407319</t>
+          <t>NO2404324</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5675,12 +5675,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JNB</t>
+          <t>JSB</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jord langs E18, nord</t>
+          <t>Jord langs E18, sør</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5708,12 +5708,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>JSB</t>
+          <t>OFM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jord langs E18, sør</t>
+          <t>Utskiftede masser etter lite oljesøl</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NO2404324</t>
+          <t>NO2404327</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5741,22 +5741,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>OFM</t>
+          <t>Oljesøl HVXA 46 - 1 år</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Utskiftede masser etter lite oljesøl</t>
+          <t>Vanlig hydraulikkolje til tunnelrigg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NO2404327</t>
+          <t>NO2327964</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5774,12 +5774,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Oljesøl HVXA 46 - 1 år</t>
+          <t>Oljesøl bio - 1 år</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Vanlig hydraulikkolje til tunnelrigg</t>
+          <t>Biohydraulikkolje</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5807,22 +5807,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Oljesøl bio - 1 år</t>
+          <t>SP4 - N</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Biohydraulikkolje</t>
+          <t>Jord og leire</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2023-12-06</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>NO2327964</t>
+          <t>NO2327001</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5840,12 +5840,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SP4 - N</t>
+          <t>SP4 - NN</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Jord og leire</t>
+          <t>Brun sandig masse</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5873,12 +5873,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SP4 - NN</t>
+          <t>SP4 - S</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Brun sandig masse</t>
+          <t>Jord og leire</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5906,12 +5906,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SP4 - S</t>
+          <t>SP4 - V</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Jord og leire</t>
+          <t>jord og leire</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5939,7 +5939,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SP4 - V</t>
+          <t>SP4 - Ø</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5972,22 +5972,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SP4 - Ø</t>
+          <t>OST 2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>jord og leire</t>
+          <t>2 blandprøver fra tverrsnittet- Østgående løp</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2023-12-06</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>NO2327001</t>
+          <t>NO2326608</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6005,12 +6005,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>OST 2</t>
+          <t>OST 2 Kolonnetest</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2 blandprøver fra tverrsnittet- Østgående løp</t>
+          <t>L/S=1.0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6038,14 +6038,10 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>OST 2 Kolonnetest</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>L/S=1.0</t>
-        </is>
-      </c>
+          <t>OST 2 Ristetest</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>2023-11-30</t>
@@ -6071,18 +6067,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>OST 2 Ristetest</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
+          <t>Ikke vasket pigget fjell</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Bare analyse av benzene</t>
+        </is>
+      </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-10-20</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>NO2326608</t>
+          <t>NO2325556</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ikke vasket pigget fjell</t>
+          <t>Vasket pigget fjell</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6133,22 +6133,18 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Vasket pigget fjell</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Bare analyse av benzene</t>
-        </is>
-      </c>
+          <t>Pigga fjell tunnel</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2023-10-20</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NO2325556</t>
+          <t>NO2322584</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6166,10 +6162,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pigga fjell tunnel</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr"/>
+          <t>SP4 mot leira</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>jord og leire</t>
+        </is>
+      </c>
       <c r="C173" t="inlineStr">
         <is>
           <t>2023-10-19</t>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NO2322584</t>
+          <t>NO2322583</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6195,12 +6195,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SP4 mot leira</t>
+          <t>SP4 topp</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>jord og leire</t>
+          <t>Fyllmassene</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6228,12 +6228,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SP4 topp</t>
+          <t>SP5</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Fyllmassene</t>
+          <t>Fyllmassene: 0-0,8m</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6261,22 +6261,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SP5</t>
+          <t>KC 5</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Fyllmassene: 0-0,8m</t>
+          <t>0-1,2m</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>NO2322583</t>
+          <t>NO2320473</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6294,12 +6294,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KC 5</t>
+          <t>KC 6</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>0-1,2m</t>
+          <t>0-1,3m</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6327,22 +6327,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>KC 6</t>
+          <t>Slam 24/08</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0-1,3m</t>
+          <t>Slam fra slambassenget under avvikling. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>NO2320473</t>
+          <t>NO2317370</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6360,22 +6360,18 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Slam 24/08</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Slam fra slambassenget under avvikling. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
-        </is>
-      </c>
+          <t>Sprengstein 21.08.23</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2023-08-24</t>
+          <t>2023-08-21</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>NO2317370</t>
+          <t>NO2317216</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6393,18 +6389,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sprengstein 21.08.23</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
+          <t>SP1 0-1,6m</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Vertikal repr. prøve</t>
+        </is>
+      </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2023-08-21</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NO2317216</t>
+          <t>NO2316569</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6422,12 +6422,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SP1 0-1,6m</t>
+          <t>SP1 nederste lag</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vertikal repr. prøve</t>
+          <t>Luktet noe olje</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6455,12 +6455,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SP1 nederste lag</t>
+          <t>SP2 0,4-0,6m</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Luktet noe olje</t>
+          <t>Sand og tegl</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6488,12 +6488,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SP2 0,4-0,6m</t>
+          <t>SP2 0-1,9m</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sand og tegl</t>
+          <t>Vertikal repr. prøve</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6521,7 +6521,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SP2 0-1,9m</t>
+          <t>SP3</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6554,22 +6554,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SP3</t>
+          <t>KC1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Vertikal repr. prøve</t>
+          <t>0-3 m vertikal prøve</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-08-09</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>NO2316569</t>
+          <t>NO2316227</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6587,12 +6587,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KC1</t>
+          <t>KC2</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>0-3 m vertikal prøve</t>
+          <t>0-1.4 m vertikal prøve</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6620,12 +6620,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KC2</t>
+          <t>KC3</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>0-1.4 m vertikal prøve</t>
+          <t>0-1.2 m vertikal prøve</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6653,12 +6653,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KC3</t>
+          <t>KC4</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>0-1.2 m vertikal prøve</t>
+          <t>0-1 m vertikal prøve</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6686,22 +6686,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>KC4</t>
+          <t>B6 vest</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>0-1 m vertikal prøve</t>
+          <t>Avgrensende prøve - alifat forurensning</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2023-08-09</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>NO2316227</t>
+          <t>NO2315727</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6719,7 +6719,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>B6 vest</t>
+          <t>Esso Sandfang (ES) 2 Nord</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>NO2315727</t>
+          <t>NO2315726</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6752,7 +6752,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Esso Sandfang (ES) 2 Nord</t>
+          <t>B6 nord</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6762,12 +6762,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>NO2315726</t>
+          <t>NO2314966</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6785,7 +6785,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>B6 nord</t>
+          <t>B6 sør</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6818,7 +6818,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>B6 sør</t>
+          <t>Esso sandfang 2 sør</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6828,12 +6828,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-07-10</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NO2314966</t>
+          <t>NO2314861</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6851,7 +6851,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Esso sandfang 2 sør</t>
+          <t>Esso sør</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6884,12 +6884,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Esso sør</t>
+          <t>Tankanlegg Esso sør</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Avgrensende prøve - alifat forurensning</t>
+          <t>Avgrensende prøve - benzen forurensning</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6917,22 +6917,22 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Tankanlegg Esso sør</t>
+          <t>B6 øst</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Avgrensende prøve - benzen forurensning</t>
+          <t>Avgrensende prøve - alifat forurensning</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2023-07-10</t>
+          <t>2023-07-05</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>NO2314861</t>
+          <t>NO2314589</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6950,22 +6950,18 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>B6 øst</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Avgrensende prøve - alifat forurensning</t>
-        </is>
-      </c>
+          <t>M280 nord</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023-07-05</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>NO2314589</t>
+          <t>NO2314862</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6983,7 +6979,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>M280 nord</t>
+          <t>M280 vest</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -7012,18 +7008,22 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>M280 vest</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
+          <t>Oljesøl HVXA 46 - 6 mnd</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vanlig hydraulikkolje til tunnelrigg</t>
+        </is>
+      </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NO2314862</t>
+          <t>NO2313822</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7041,12 +7041,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Oljesøl HVXA 46 - 6 mnd</t>
+          <t>Oljesøl bio - 6 mnd</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Vanlig hydraulikkolje til tunnelrigg</t>
+          <t>Biohydraulikkolje</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -7074,22 +7074,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Oljesøl bio - 6 mnd</t>
+          <t>Slam fra E103 uke24</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Biohydraulikkolje</t>
+          <t>Slam fra renseanlegget. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2023-06-28</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NO2313822</t>
+          <t>NO2312593</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7107,22 +7107,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Slam fra E103 uke24</t>
+          <t>Ramstadsletta 46</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Slam fra renseanlegget. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
+          <t>0-1 meter. Jord ned til leire</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>NO2312593</t>
+          <t>NO2310183</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7140,22 +7140,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ramstadsletta 46</t>
+          <t>Esso Sandfang 1 - nord</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>0-1 meter. Jord ned til leire</t>
+          <t>Avgrensning mot tidligere forurensning. Begge prøvetakingspunkt og område hvor sandfanger var kunne en se skille mot stedlige masser/leire.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>NO2310183</t>
+          <t>NO2309899</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7173,7 +7173,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Esso Sandfang 1 - nord</t>
+          <t>Esso Sandfang 1 - sør</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -7206,22 +7206,22 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Esso Sandfang 1 - sør</t>
+          <t>Elise Roalkvam</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Avgrensning mot tidligere forurensning. Begge prøvetakingspunkt og område hvor sandfanger var kunne en se skille mot stedlige masser/leire.</t>
+          <t>Slam fra slambassenget. Tatt fra skuff. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>NO2309899</t>
+          <t>NO2309577</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7239,22 +7239,22 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Elise Roalkvam</t>
+          <t>Tankanlegg Esso øst</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Slam fra slambassenget. Tatt fra skuff. Prøve tatt samme dag som slambilen leverte slammet til Fossum.</t>
+          <t>Tatt i VA 4 - ved knekk. Rett øst forprøvetankingspunkt "Tankanlegg Esso"., som hadde benzen forurensning TK5. Tatt rundt 1 meter ned, før avstivning. Fyllmasser</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>NO2309577</t>
+          <t>NO2307680</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7272,22 +7272,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Tankanlegg Esso øst</t>
+          <t>VA-4-KG25-Ø</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tatt i VA 4 - ved knekk. Rett øst forprøvetankingspunkt "Tankanlegg Esso"., som hadde benzen forurensning TK5. Tatt rundt 1 meter ned, før avstivning. Fyllmasser</t>
+          <t>Mellom KG25 og prøvetatt forurensning.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023-04-17</t>
+          <t>2023-03-23</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NO2307680</t>
+          <t>NO2306164</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7305,22 +7305,22 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>VA-4-KG25-Ø</t>
+          <t>VA -4 - KG 25 - V</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mellom KG25 og prøvetatt forurensning.</t>
+          <t>Prøve tatt rett vest for KG 25 i VA  trasseen.  1 meter ned.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2023-03-23</t>
+          <t>2023-03-16</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>NO2306164</t>
+          <t>NO2305568</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7338,12 +7338,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>VA -4 - KG 25 - V</t>
+          <t>VA-4-KG26-Ø</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Prøve tatt rett vest for KG 25 i VA  trasseen.  1 meter ned.</t>
+          <t>Prøve for masser øst for KG 26.Mellomlagrede  masser i forbindelse med spunting i retning nord vest for KG 26.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7371,22 +7371,22 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>VA-4-KG26-Ø</t>
+          <t>Oljesøl HVXA 46 - 2 mnd</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Prøve for masser øst for KG 26.Mellomlagrede  masser i forbindelse med spunting i retning nord vest for KG 26.</t>
+          <t>Vanlig hydraulikkolje til tunnelrigg</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023-03-16</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>NO2305568</t>
+          <t>NO2303604</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7404,12 +7404,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Oljesøl HVXA 46 - 2 mnd</t>
+          <t>Oljesøl bio - 2mnd</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Vanlig hydraulikkolje til tunnelrigg</t>
+          <t>Biohydraulikkolje</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7437,22 +7437,22 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Oljesøl bio - 2mnd</t>
+          <t>Oljesøl HVXA 46</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Biohydraulikkolje</t>
+          <t>Vanlig hydraulikkolje til tunnelrigg</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>NO2303604</t>
+          <t>NO2300120</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7470,12 +7470,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Oljesøl HVXA 46</t>
+          <t>Oljesøl bio</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Vanlig hydraulikkolje til tunnelrigg</t>
+          <t>Biohydraulikkolje</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7503,22 +7503,18 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Oljesøl bio</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Biohydraulikkolje</t>
-        </is>
-      </c>
+          <t>VA - trasse ved Esso</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>NO2300120</t>
+          <t>NO2223402</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7536,18 +7532,18 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VA - trasse ved Esso</t>
+          <t>Sandfang Esso</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>NO2223402</t>
+          <t>NO2223191</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7565,18 +7561,22 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Sandfang Esso</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
+          <t>M280 - Sør 1</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0 - 0,7</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>NO2223191</t>
+          <t>NO2221574</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7594,12 +7594,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>M280 - Sør 1</t>
+          <t>M280 - øst</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>0 - 0,7</t>
+          <t>1 - 1,4</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7627,22 +7627,22 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>M280 - øst</t>
+          <t>Filterkake fra Jetpeling</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>1 - 1,4</t>
+          <t>Filterkake fra jetpeling</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>NO2221574</t>
+          <t>NO2221147</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7660,22 +7660,22 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Filterkake fra Jetpeling</t>
+          <t>VA-trasee 4: del 3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Filterkake fra jetpeling</t>
+          <t>Fyllmasse fra VA-trasee 4</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>NO2221147</t>
+          <t>NO2220942</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -7693,12 +7693,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>VA-trasee 4: del 3</t>
+          <t>VA-trasee 4: del 3 (kolonnetest)</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Fyllmasse fra VA-trasee 4</t>
+          <t>L/S=0.1</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7726,22 +7726,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>VA-trasee 4: del 3 (kolonnetest)</t>
+          <t>Ikke kartlagt oljetank - Esso Ramstadsletta</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>L/S=0.1</t>
+          <t>Kartlegging av forurensning Esso - Ramstadsletta</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>NO2220942</t>
+          <t>NO2219984</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7759,27 +7759,19 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Ikke kartlagt oljetank - Esso Ramstadsletta</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Kartlegging av forurensning Esso - Ramstadsletta</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
-      </c>
+          <t>OST 2 2 blandprøver fra tverrsnittet- Østgående løp</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>NO2219984</t>
+          <t>NO2326608</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Alle bunnrenskprøver, mangler siste blandeprøve ØL (1).xlsx</t>
+          <t>EDD_XLS_STD_NO2326608_0_nb-NO (2).xlsx</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7792,7 +7784,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>OST 2 2 blandprøver fra tverrsnittet- Østgående løp</t>
+          <t>OST 2 Kolonnetest L/S=1.0</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -7813,31 +7805,6 @@
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>OST 2 Kolonnetest L/S=1.0</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>NO2326608</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>EDD_XLS_STD_NO2326608_0_nb-NO (2).xlsx</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
